--- a/report/Metrics.xlsx
+++ b/report/Metrics.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\GitHub\-DCS-Dragon-Arena-System\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Main</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Received</t>
-  </si>
-  <si>
-    <t>F send</t>
   </si>
   <si>
     <t>F received</t>
@@ -70,12 +67,6 @@
   </si>
   <si>
     <t>Clients end</t>
-  </si>
-  <si>
-    <t>Send Client</t>
-  </si>
-  <si>
-    <t>Send Server</t>
   </si>
   <si>
     <t>F Send Client</t>
@@ -119,6 +110,21 @@
   <si>
     <t>Median</t>
   </si>
+  <si>
+    <t>Send to Client</t>
+  </si>
+  <si>
+    <t>Send to Server</t>
+  </si>
+  <si>
+    <t>Failed to send</t>
+  </si>
+  <si>
+    <t>Failed to Send</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +154,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,15 +162,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -187,14 +205,3846 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Helper Messages</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Send to Client</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$11:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Send to Server</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$11:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2382</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Send</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$11:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Received</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$11:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3757</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Failed to send</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$11:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="408841032"/>
+        <c:axId val="408842600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="408841032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408842600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="408842600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="408841032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Main</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Server Messages</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Send</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Received</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Failed to Send</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="403442216"/>
+        <c:axId val="403439080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="403442216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403439080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="403439080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403442216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Main</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Server Messages (2)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40949300087489071"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$36:$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Send</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Received</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Failed to send</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>914.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1729.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Helper Servers Messages</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (2)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$65:$B$67</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Send</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Received</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Failed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$65:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>911.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>967.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>795337</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>252412</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A28:I35" totalsRowShown="0">
-  <autoFilter ref="A28:I35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A25:I32" totalsRowShown="0">
+  <autoFilter ref="A25:I32"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Main"/>
     <tableColumn id="2" name="Send"/>
     <tableColumn id="3" name="Received"/>
-    <tableColumn id="4" name="F send"/>
+    <tableColumn id="4" name="Failed to Send"/>
     <tableColumn id="5" name="F received"/>
     <tableColumn id="6" name="disc. Helpers"/>
     <tableColumn id="7" name="at. Backup"/>
@@ -206,18 +4056,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:N25" totalsRowShown="0">
-  <autoFilter ref="A10:N25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:N22" totalsRowShown="0">
+  <autoFilter ref="A10:N22"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Main" dataDxfId="0"/>
     <tableColumn id="2" name="Helper"/>
     <tableColumn id="3" name="Clients"/>
     <tableColumn id="4" name="Clients end"/>
     <tableColumn id="14" name="Send"/>
-    <tableColumn id="5" name="Send Client"/>
-    <tableColumn id="6" name="Send Server"/>
+    <tableColumn id="5" name="Send to Client"/>
+    <tableColumn id="6" name="Send to Server"/>
     <tableColumn id="7" name="Received"/>
-    <tableColumn id="8" name="F send"/>
+    <tableColumn id="8" name="Failed to send"/>
     <tableColumn id="9" name="F Send Client"/>
     <tableColumn id="10" name="F Send Server"/>
     <tableColumn id="11" name="F Received"/>
@@ -491,10 +4341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:N35"/>
+  <dimension ref="A10:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,43 +4367,43 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
         <v>17</v>
       </c>
-      <c r="K10" t="s">
+      <c r="N10" t="s">
         <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -597,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -641,7 +4491,36 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>921</v>
+      </c>
+      <c r="F13">
+        <v>308</v>
+      </c>
+      <c r="G13">
+        <v>614</v>
+      </c>
+      <c r="H13">
+        <v>983</v>
+      </c>
+      <c r="N13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -649,28 +4528,28 @@
         <v>2</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>921</v>
+        <v>461</v>
       </c>
       <c r="F14">
-        <v>308</v>
+        <v>157</v>
       </c>
       <c r="G14">
-        <v>614</v>
+        <v>304</v>
       </c>
       <c r="H14">
-        <v>983</v>
+        <v>512</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -678,28 +4557,31 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>461</v>
+        <v>317</v>
       </c>
       <c r="F15">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="G15">
-        <v>304</v>
+        <v>204</v>
       </c>
       <c r="H15">
-        <v>512</v>
+        <v>395</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -707,198 +4589,280 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>317</v>
+        <v>689</v>
       </c>
       <c r="F16">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="G16">
-        <v>204</v>
+        <v>459</v>
       </c>
       <c r="H16">
-        <v>395</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
+        <v>782</v>
       </c>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3559</v>
+      </c>
+      <c r="F17">
+        <v>1222</v>
+      </c>
+      <c r="G17">
+        <v>2382</v>
+      </c>
+      <c r="H17">
+        <v>3757</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="N17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>4</v>
       </c>
-      <c r="C17">
-        <v>41</v>
-      </c>
-      <c r="D17">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>689</v>
-      </c>
-      <c r="F17">
-        <v>239</v>
-      </c>
-      <c r="G17">
-        <v>459</v>
-      </c>
-      <c r="H17">
-        <v>782</v>
-      </c>
-      <c r="N17" t="s">
-        <v>26</v>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1108</v>
+      </c>
+      <c r="F18">
+        <v>331</v>
+      </c>
+      <c r="G18">
+        <v>780</v>
+      </c>
+      <c r="H18">
+        <v>1286</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>720</v>
+      </c>
+      <c r="F19">
+        <v>241</v>
+      </c>
+      <c r="G19">
+        <v>478</v>
+      </c>
+      <c r="H19">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>3559</v>
-      </c>
-      <c r="F19">
-        <v>1222</v>
-      </c>
-      <c r="G19">
-        <v>2382</v>
-      </c>
-      <c r="H19">
-        <v>3757</v>
-      </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
+      <c r="E20">
+        <v>902</v>
+      </c>
+      <c r="F20">
+        <v>302</v>
+      </c>
+      <c r="G20">
+        <v>559</v>
+      </c>
+      <c r="H20">
+        <v>952</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1108</v>
-      </c>
-      <c r="F21">
-        <v>331</v>
-      </c>
-      <c r="G21">
-        <v>780</v>
-      </c>
-      <c r="H21">
-        <v>1286</v>
-      </c>
+      <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="E22">
-        <v>720</v>
+        <f xml:space="preserve"> MEDIAN(E11:E20)</f>
+        <v>911.5</v>
       </c>
       <c r="F22">
-        <v>241</v>
+        <f xml:space="preserve"> MEDIAN(F11:F20)</f>
+        <v>305</v>
       </c>
       <c r="G22">
-        <v>478</v>
+        <f xml:space="preserve"> MEDIAN(G11:G20)</f>
+        <v>586.5</v>
       </c>
       <c r="H22">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>902</v>
-      </c>
-      <c r="F23">
-        <v>302</v>
-      </c>
-      <c r="G23">
-        <v>559</v>
-      </c>
-      <c r="H23">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+        <f xml:space="preserve"> MEDIAN(H11:H20)</f>
+        <v>967.5</v>
+      </c>
+      <c r="I22">
+        <f xml:space="preserve"> MEDIAN(I11:I20)</f>
+        <v>1.5</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>835</v>
+      </c>
+      <c r="C26">
+        <v>1616</v>
+      </c>
+      <c r="D26">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>809</v>
+      </c>
+      <c r="C27">
+        <v>1570</v>
+      </c>
+      <c r="D27">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>1207</v>
+      </c>
+      <c r="C28">
+        <v>2345</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" t="s">
-        <v>7</v>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="2">
+        <f xml:space="preserve"> (D32/C32)</f>
+        <v>1.2720439433362244E-2</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>835</v>
+        <v>994</v>
       </c>
       <c r="C29">
-        <v>1616</v>
+        <v>1843</v>
       </c>
       <c r="D29">
         <v>22</v>
@@ -916,137 +4880,112 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>809</v>
-      </c>
-      <c r="C30">
-        <v>1570</v>
-      </c>
-      <c r="D30">
-        <v>35</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>1207</v>
-      </c>
-      <c r="C31">
-        <v>2345</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" t="s">
-        <v>29</v>
-      </c>
-      <c r="L31" s="2">
-        <f xml:space="preserve"> (D35/C35)</f>
-        <v>1.2720439433362244E-2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>4</v>
+      <c r="A32" t="s">
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>994</v>
+        <f>MEDIAN(B26:B31)</f>
+        <v>914.5</v>
       </c>
       <c r="C32">
-        <v>1843</v>
+        <f t="shared" ref="B32:H32" si="0">MEDIAN(C26:C31)</f>
+        <v>1729.5</v>
       </c>
       <c r="D32">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E32">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <f>B32</f>
+        <v>914.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <f>C32</f>
+        <v>1729.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>30</v>
       </c>
-      <c r="C35">
-        <f>MEDIAN(C29:C34)</f>
-        <v>1729.5</v>
-      </c>
-      <c r="D35">
-        <f>MEDIAN(D29:D34)</f>
+      <c r="C38">
+        <f>D32</f>
         <v>22</v>
       </c>
-      <c r="E35">
-        <f>MEDIAN(E29:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f>MEDIAN(F29:F34)</f>
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f>MEDIAN(G29:G34)</f>
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <f>MEDIAN(H29:H34)</f>
-        <v>0</v>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <f>E22</f>
+        <v>911.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <f>H22</f>
+        <v>967.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67">
+        <f>I22</f>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/report/Metrics.xlsx
+++ b/report/Metrics.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>Main</t>
   </si>
@@ -111,25 +111,34 @@
     <t>Median</t>
   </si>
   <si>
-    <t>Send to Client</t>
+    <t>Total messages sent</t>
   </si>
   <si>
-    <t>Send to Server</t>
+    <t>Messages received</t>
   </si>
   <si>
-    <t>Failed to send</t>
+    <t>Messages sent to client</t>
   </si>
   <si>
-    <t>Failed to Send</t>
+    <t>Messages sent to server</t>
   </si>
   <si>
-    <t>Failed</t>
+    <t>Messages failed to send</t>
+  </si>
+  <si>
+    <t>Messages failed to sent</t>
+  </si>
+  <si>
+    <t>Failed to sent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,11 +187,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,8 +250,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Helper Messages</a:t>
+              <a:t>Main</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Server Messages per Testrun</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -283,15 +298,107 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$10</c:f>
+              <c:f>Sheet1!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Send to Client</c:v>
+                  <c:v>Total messages sent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$B$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Messages received</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1843</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Messages failed to sent</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -308,279 +415,21 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$11:$F$20</c:f>
+              <c:f>Sheet1!$D$25:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>424</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>409</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>308</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1222</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>302</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Send to Server</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$11:$G$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>783</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>763</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>614</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>459</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2382</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>478</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>559</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Send</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$11:$E$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1202</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1169</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>461</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>689</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3559</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1108</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>720</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>902</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Received</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$11:$H$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1404</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1426</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>983</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>782</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3757</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1286</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>751</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>952</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Failed to send</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$I$11:$I$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,17 +445,16 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="408841032"/>
-        <c:axId val="408842600"/>
+        <c:axId val="313761048"/>
+        <c:axId val="313784592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="408841032"/>
+        <c:axId val="313761048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -643,7 +491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408842600"/>
+        <c:crossAx val="313784592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -651,7 +499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408842600"/>
+        <c:axId val="313784592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -702,7 +550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408841032"/>
+        <c:crossAx val="313761048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -804,12 +652,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -818,17 +663,19 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Main</a:t>
+              <a:t>Main Server Messages</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Server Messages</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25115966754155733"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -842,12 +689,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -861,142 +705,203 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$25</c:f>
+              <c:f>Sheet1!$B$35:$B$37</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Send</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>Received</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Failed to sent</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$B$29</c:f>
+              <c:f>Sheet1!$C$35:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>835</c:v>
+                  <c:v>914.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>809</c:v>
+                  <c:v>1729.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1207</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Received</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$26:$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1616</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1570</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2345</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1843</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Failed to Send</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$26:$D$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
@@ -1004,124 +909,17 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="403442216"/>
-        <c:axId val="403439080"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="403442216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="403439080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="403439080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="403442216"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1148,10 +946,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1172,7 +967,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1220,12 +1015,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1234,23 +1026,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Main</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Server Messages (2)</a:t>
+              <a:t>Helper Servers Messages</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.40949300087489071"/>
-          <c:y val="2.7777777777777776E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1264,12 +1045,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1292,13 +1070,34 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1307,13 +1106,34 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -1322,20 +1142,95 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$36:$B$38</c:f>
+              <c:f>Sheet1!$B$64:$B$66</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1345,36 +1240,37 @@
                   <c:v>Received</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Failed to send</c:v>
+                  <c:v>Failed to sent</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$36:$C$38</c:f>
+              <c:f>Sheet1!$C$64:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>914.5</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1729.5</c:v>
+                  <c:v>453.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -1406,10 +1302,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1430,7 +1323,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1492,12 +1385,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Helper Servers Messages</a:t>
+              <a:t>Helper</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (2)</a:t>
+              <a:t> Server Messages per Testrun</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1534,87 +1428,307 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Messages sent to client</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$11:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Messages sent to server</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$11:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2382</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
+          <c:order val="2"/>
+          <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$65:$B$67</c:f>
+              <c:f>Sheet1!$E$10</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Send</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Received</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Failed</c:v>
+                  <c:v>Total messages sent</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$65:$C$67</c:f>
+              <c:f>Sheet1!$E$11:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>911.5</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>967.5</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5</c:v>
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>921</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1202</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Messages received</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$11:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Messages failed to send</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$11:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,10 +1741,118 @@
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="314089024"/>
+        <c:axId val="313230248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="314089024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="313230248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="313230248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314089024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2372,6 +2594,942 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2874,1062 +4032,24 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3946,20 +4066,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3977,19 +4097,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>366712</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:colOff>157162</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4006,20 +4126,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>795337</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>252412</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4038,13 +4158,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A25:I32" totalsRowShown="0">
-  <autoFilter ref="A25:I32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A24:I31" totalsRowShown="0">
+  <autoFilter ref="A24:I31"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Main"/>
-    <tableColumn id="2" name="Send"/>
-    <tableColumn id="3" name="Received"/>
-    <tableColumn id="4" name="Failed to Send"/>
+    <tableColumn id="2" name="Total messages sent"/>
+    <tableColumn id="3" name="Messages received"/>
+    <tableColumn id="4" name="Messages failed to sent"/>
     <tableColumn id="5" name="F received"/>
     <tableColumn id="6" name="disc. Helpers"/>
     <tableColumn id="7" name="at. Backup"/>
@@ -4058,16 +4178,19 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:N22" totalsRowShown="0">
   <autoFilter ref="A10:N22"/>
+  <sortState ref="A11:N22">
+    <sortCondition ref="E10:E22"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="1" name="Main" dataDxfId="0"/>
     <tableColumn id="2" name="Helper"/>
     <tableColumn id="3" name="Clients"/>
     <tableColumn id="4" name="Clients end"/>
-    <tableColumn id="14" name="Send"/>
-    <tableColumn id="5" name="Send to Client"/>
-    <tableColumn id="6" name="Send to Server"/>
-    <tableColumn id="7" name="Received"/>
-    <tableColumn id="8" name="Failed to send"/>
+    <tableColumn id="14" name="Total messages sent"/>
+    <tableColumn id="5" name="Messages sent to client"/>
+    <tableColumn id="6" name="Messages sent to server"/>
+    <tableColumn id="7" name="Messages received"/>
+    <tableColumn id="8" name="Messages failed to send"/>
     <tableColumn id="9" name="F Send Client"/>
     <tableColumn id="10" name="F Send Server"/>
     <tableColumn id="11" name="F Received"/>
@@ -4341,10 +4464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:N67"/>
+  <dimension ref="A10:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="G51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4376,19 +4499,19 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -4408,90 +4531,63 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>317</v>
+      </c>
+      <c r="F11">
+        <v>113</v>
+      </c>
+      <c r="G11">
+        <v>204</v>
+      </c>
+      <c r="H11">
+        <v>395</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>56</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>1202</v>
-      </c>
-      <c r="F11">
-        <v>424</v>
-      </c>
-      <c r="G11">
-        <v>783</v>
-      </c>
-      <c r="H11">
-        <v>1404</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>1169</v>
+        <v>461</v>
       </c>
       <c r="F12">
-        <v>409</v>
+        <v>157</v>
       </c>
       <c r="G12">
-        <v>763</v>
+        <v>304</v>
       </c>
       <c r="H12">
-        <v>1426</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="N12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -4499,89 +4595,68 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>41</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>921</v>
+        <v>689</v>
       </c>
       <c r="F13">
-        <v>308</v>
+        <v>239</v>
       </c>
       <c r="G13">
-        <v>614</v>
+        <v>459</v>
       </c>
       <c r="H13">
-        <v>983</v>
+        <v>782</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
       <c r="E14">
-        <v>461</v>
+        <v>720</v>
       </c>
       <c r="F14">
-        <v>157</v>
+        <v>241</v>
       </c>
       <c r="G14">
-        <v>304</v>
+        <v>478</v>
       </c>
       <c r="H14">
-        <v>512</v>
-      </c>
-      <c r="N14" t="s">
-        <v>21</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
+      <c r="A15" s="1">
+        <v>4</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
       <c r="E15">
-        <v>317</v>
+        <v>902</v>
       </c>
       <c r="F15">
-        <v>113</v>
+        <v>302</v>
       </c>
       <c r="G15">
-        <v>204</v>
+        <v>559</v>
       </c>
       <c r="H15">
-        <v>395</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>22</v>
+        <v>952</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -4589,189 +4664,268 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>41</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>689</v>
+        <v>921</v>
       </c>
       <c r="F16">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="G16">
-        <v>459</v>
+        <v>614</v>
       </c>
       <c r="H16">
-        <v>782</v>
+        <v>983</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>100</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
       <c r="E17">
-        <v>3559</v>
+        <v>1108</v>
       </c>
       <c r="F17">
-        <v>1222</v>
+        <v>331</v>
       </c>
       <c r="G17">
-        <v>2382</v>
+        <v>780</v>
       </c>
       <c r="H17">
-        <v>3757</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>24</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>66</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>1169</v>
+      </c>
+      <c r="F18">
+        <v>409</v>
+      </c>
+      <c r="G18">
+        <v>763</v>
+      </c>
+      <c r="H18">
+        <v>1426</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>1108</v>
-      </c>
-      <c r="F18">
-        <v>331</v>
-      </c>
-      <c r="G18">
-        <v>780</v>
-      </c>
-      <c r="H18">
-        <v>1286</v>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>1202</v>
+      </c>
+      <c r="F19">
+        <v>424</v>
+      </c>
+      <c r="G19">
+        <v>783</v>
+      </c>
+      <c r="H19">
+        <v>1404</v>
+      </c>
+      <c r="I19">
         <v>4</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>720</v>
-      </c>
-      <c r="F19">
-        <v>241</v>
-      </c>
-      <c r="G19">
-        <v>478</v>
-      </c>
-      <c r="H19">
-        <v>751</v>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>4</v>
+      <c r="A20">
+        <v>3</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
         <v>3</v>
       </c>
       <c r="E20">
-        <v>902</v>
+        <v>3559</v>
       </c>
       <c r="F20">
-        <v>302</v>
+        <v>1222</v>
       </c>
       <c r="G20">
-        <v>559</v>
+        <v>2382</v>
       </c>
       <c r="H20">
-        <v>952</v>
+        <v>3757</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E22">
-        <f xml:space="preserve"> MEDIAN(E11:E20)</f>
-        <v>911.5</v>
+        <f xml:space="preserve"> MEDIAN(E6:E12)</f>
+        <v>389</v>
       </c>
       <c r="F22">
-        <f xml:space="preserve"> MEDIAN(F11:F20)</f>
-        <v>305</v>
+        <f xml:space="preserve"> MEDIAN(F6:F12)</f>
+        <v>135</v>
       </c>
       <c r="G22">
-        <f xml:space="preserve"> MEDIAN(G11:G20)</f>
-        <v>586.5</v>
+        <f xml:space="preserve"> MEDIAN(G6:G12)</f>
+        <v>254</v>
       </c>
       <c r="H22">
-        <f xml:space="preserve"> MEDIAN(H11:H20)</f>
-        <v>967.5</v>
+        <f xml:space="preserve"> MEDIAN(H6:H12)</f>
+        <v>453.5</v>
       </c>
       <c r="I22">
-        <f xml:space="preserve"> MEDIAN(I11:I20)</f>
-        <v>1.5</v>
+        <f xml:space="preserve"> MEDIAN(I6:I12)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>835</v>
+      </c>
+      <c r="C25">
+        <v>1616</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25">
         <v>0</v>
       </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" t="s">
-        <v>6</v>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>835</v>
+        <v>809</v>
       </c>
       <c r="C26">
-        <v>1616</v>
+        <v>1570</v>
       </c>
       <c r="D26">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4786,21 +4940,21 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>809</v>
+        <v>1207</v>
       </c>
       <c r="C27">
-        <v>1570</v>
+        <v>2345</v>
       </c>
       <c r="D27">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4815,21 +4969,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="2">
+        <f xml:space="preserve"> (D31/C31)</f>
+        <v>1.2720439433362244E-2</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>1207</v>
+        <v>994</v>
       </c>
       <c r="C28">
-        <v>2345</v>
+        <v>1843</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4844,148 +5005,113 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="2">
-        <f xml:space="preserve"> (D32/C32)</f>
-        <v>1.2720439433362244E-2</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>994</v>
-      </c>
-      <c r="C29">
-        <v>1843</v>
-      </c>
-      <c r="D29">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B32">
-        <f>MEDIAN(B26:B31)</f>
+      <c r="B31">
+        <f>MEDIAN(B25:B30)</f>
         <v>914.5</v>
       </c>
-      <c r="C32">
-        <f t="shared" ref="B32:H32" si="0">MEDIAN(C26:C31)</f>
+      <c r="C31">
+        <f t="shared" ref="C31:H31" si="0">MEDIAN(C25:C30)</f>
         <v>1729.5</v>
       </c>
-      <c r="D32">
+      <c r="D31">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E32">
+      <c r="E31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32">
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32">
+      <c r="G31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32">
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>0</v>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f>B31</f>
+        <v>914.5</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>1</v>
+      <c r="B36" t="s">
+        <v>2</v>
       </c>
       <c r="C36">
-        <f>B32</f>
-        <v>914.5</v>
+        <f>C31</f>
+        <v>1729.5</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <f>C32</f>
-        <v>1729.5</v>
+        <f>D31</f>
+        <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38">
-        <f>D32</f>
-        <v>22</v>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <f xml:space="preserve"> E22</f>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <f>E22</f>
-        <v>911.5</v>
+        <f>H22</f>
+        <v>453.5</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="C66">
-        <f>H22</f>
-        <v>967.5</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67">
         <f>I22</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/report/Metrics.xlsx
+++ b/report/Metrics.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Main</t>
   </si>
@@ -105,9 +105,6 @@
     <t>2m</t>
   </si>
   <si>
-    <t>Median% =</t>
-  </si>
-  <si>
     <t>Median</t>
   </si>
   <si>
@@ -131,6 +128,18 @@
   <si>
     <t>Failed to sent</t>
   </si>
+  <si>
+    <t>Helper #1</t>
+  </si>
+  <si>
+    <t>Helper #2</t>
+  </si>
+  <si>
+    <t>Helper #3</t>
+  </si>
+  <si>
+    <t>Helper #4</t>
+  </si>
 </sst>
 </file>
 
@@ -148,22 +157,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,23 +198,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -328,16 +484,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>835</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>809</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>994</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1207</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,16 +530,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1616</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1570</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2345</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -420,16 +576,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -445,11 +601,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="313761048"/>
-        <c:axId val="313784592"/>
+        <c:axId val="108784936"/>
+        <c:axId val="108785328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="313761048"/>
+        <c:axId val="108784936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,7 +647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313784592"/>
+        <c:crossAx val="108785328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -499,7 +655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313784592"/>
+        <c:axId val="108785328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,7 +706,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313761048"/>
+        <c:crossAx val="108784936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -874,7 +1030,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$35:$B$37</c:f>
+              <c:f>Sheet1!$B$34:$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -891,18 +1047,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$35:$C$37</c:f>
+              <c:f>Sheet1!$C$34:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>914.5</c:v>
+                  <c:v>822</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1729.5</c:v>
+                  <c:v>1593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,7 +1386,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$64:$B$66</c:f>
+              <c:f>Sheet1!$B$63:$B$65</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1247,7 +1403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$64:$C$66</c:f>
+              <c:f>Sheet1!$C$63:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1744,11 +1900,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="314089024"/>
-        <c:axId val="313230248"/>
+        <c:axId val="268586880"/>
+        <c:axId val="268590800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314089024"/>
+        <c:axId val="268586880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1790,7 +1946,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="313230248"/>
+        <c:crossAx val="268590800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1798,7 +1954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="313230248"/>
+        <c:axId val="268590800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +2005,800 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314089024"/>
+        <c:crossAx val="268586880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Helper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$78:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clients</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$78:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="95160056"/>
+        <c:axId val="95156920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="95160056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95156920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95156920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95160056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Client</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - Helper Distribution</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Helper #1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$92:$C$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Helper #2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$92:$D$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Helper #3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$92:$E$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Helper #4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$92:$F$94</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="333619992"/>
+        <c:axId val="269973784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="333619992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="269973784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="269973784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="333619992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2090,6 +3039,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3530,6 +4559,1012 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4038,13 +6073,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4068,13 +6103,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>452437</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4098,13 +6133,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4134,7 +6169,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4154,12 +6189,75 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A24:I31" totalsRowShown="0">
-  <autoFilter ref="A24:I31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A24:I30" totalsRowShown="0">
+  <autoFilter ref="A24:I30"/>
+  <sortState ref="A25:J31">
+    <sortCondition ref="C24:C31"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" name="Main"/>
     <tableColumn id="2" name="Total messages sent"/>
@@ -4178,11 +6276,11 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:N22" totalsRowShown="0">
   <autoFilter ref="A10:N22"/>
-  <sortState ref="A11:N22">
-    <sortCondition ref="E10:E22"/>
+  <sortState ref="A11:O22">
+    <sortCondition ref="F10:F22"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Main" dataDxfId="0"/>
+    <tableColumn id="1" name="Main" dataDxfId="6"/>
     <tableColumn id="2" name="Helper"/>
     <tableColumn id="3" name="Clients"/>
     <tableColumn id="4" name="Clients end"/>
@@ -4196,6 +6294,38 @@
     <tableColumn id="11" name="F Received"/>
     <tableColumn id="12" name="Changerequest"/>
     <tableColumn id="13" name="Run time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B77:D87" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="5">
+  <autoFilter ref="B77:D87"/>
+  <sortState ref="C78:E87">
+    <sortCondition ref="C77:C87"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Main" dataDxfId="4"/>
+    <tableColumn id="2" name="Helper" dataDxfId="3"/>
+    <tableColumn id="3" name="Clients" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B91:F94" totalsRowShown="0">
+  <autoFilter ref="B91:F94"/>
+  <sortState ref="B92:F94">
+    <sortCondition ref="B91:B94"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="5" name="Helper"/>
+    <tableColumn id="1" name="Helper #1"/>
+    <tableColumn id="2" name="Helper #2"/>
+    <tableColumn id="3" name="Helper #3"/>
+    <tableColumn id="4" name="Helper #4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4464,15 +6594,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:N66"/>
+  <dimension ref="A10:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
@@ -4499,19 +6630,19 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -4792,7 +6923,7 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4833,7 +6964,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <f xml:space="preserve"> MEDIAN(E6:E12)</f>
@@ -4861,13 +6992,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" t="s">
-        <v>29</v>
-      </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
         <v>3</v>
@@ -4887,16 +7018,16 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>835</v>
+        <v>809</v>
       </c>
       <c r="C25">
-        <v>1616</v>
+        <v>1570</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4911,21 +7042,21 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>809</v>
+        <v>835</v>
       </c>
       <c r="C26">
-        <v>1570</v>
+        <v>1616</v>
       </c>
       <c r="D26">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -4940,21 +7071,21 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>1207</v>
+        <v>994</v>
       </c>
       <c r="C27">
-        <v>2345</v>
+        <v>1843</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4969,28 +7100,21 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="2">
-        <f xml:space="preserve"> (D31/C31)</f>
-        <v>1.2720439433362244E-2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>994</v>
+        <v>1207</v>
       </c>
       <c r="C28">
-        <v>1843</v>
+        <v>2345</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5005,113 +7129,271 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31">
-        <f>MEDIAN(B25:B30)</f>
-        <v>914.5</v>
-      </c>
-      <c r="C31">
-        <f t="shared" ref="C31:H31" si="0">MEDIAN(C25:C30)</f>
-        <v>1729.5</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="0"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30">
+        <f>MEDIAN(B21:B26)</f>
+        <v>822</v>
+      </c>
+      <c r="C30">
+        <f>MEDIAN(C21:C26)</f>
+        <v>1593</v>
+      </c>
+      <c r="D30">
+        <f>MEDIAN(D21:D26)</f>
+        <v>28.5</v>
+      </c>
+      <c r="E30">
+        <f>MEDIAN(E21:E26)</f>
         <v>0</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
+      <c r="F30">
+        <f>MEDIAN(F21:F26)</f>
         <v>0</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
+      <c r="G30">
+        <f>MEDIAN(G21:G26)</f>
         <v>0</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
+      <c r="H30">
+        <f>MEDIAN(H21:H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>0</v>
+      <c r="B34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <f>B30</f>
+        <v>822</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>1</v>
+      <c r="B35" t="s">
+        <v>2</v>
       </c>
       <c r="C35">
-        <f>B31</f>
-        <v>914.5</v>
+        <f xml:space="preserve"> C30</f>
+        <v>1593</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C36">
-        <f>C31</f>
-        <v>1729.5</v>
+        <f>D30</f>
+        <v>28.5</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37">
-        <f>D31</f>
-        <v>22</v>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <f xml:space="preserve"> E22</f>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <f xml:space="preserve"> E22</f>
-        <v>389</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65">
         <f>H22</f>
         <v>453.5</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65">
         <f>I22</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="4">
+        <v>1</v>
+      </c>
+      <c r="C78" s="4">
+        <v>1</v>
+      </c>
+      <c r="D78" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="4">
+        <v>1</v>
+      </c>
+      <c r="C79" s="4">
+        <v>2</v>
+      </c>
+      <c r="D79" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="4">
+        <v>2</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1</v>
+      </c>
+      <c r="D80" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="4">
+        <v>2</v>
+      </c>
+      <c r="C81" s="4">
+        <v>2</v>
+      </c>
+      <c r="D81" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="4">
+        <v>2</v>
+      </c>
+      <c r="C82" s="4">
+        <v>3</v>
+      </c>
+      <c r="D82" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="4">
+        <v>2</v>
+      </c>
+      <c r="C83" s="4">
+        <v>4</v>
+      </c>
+      <c r="D83" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="4">
+        <v>3</v>
+      </c>
+      <c r="C84" s="4">
+        <v>1</v>
+      </c>
+      <c r="D84" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="5"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" t="s">
+        <v>36</v>
+      </c>
+      <c r="F91" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>41</v>
+      </c>
+      <c r="D92">
+        <v>26</v>
+      </c>
+      <c r="E92">
+        <v>30</v>
+      </c>
+      <c r="F92">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>56</v>
+      </c>
+      <c r="D93">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>

--- a/report/Metrics.xlsx
+++ b/report/Metrics.xlsx
@@ -6163,14 +6163,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6596,8 +6596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A10:N94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
